--- a/biology/Botanique/Circaea_lutetiana/Circaea_lutetiana.xlsx
+++ b/biology/Botanique/Circaea_lutetiana/Circaea_lutetiana.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Circaea lutetiana, Circée de Paris, Circée commune ou Herbe aux sorcières[1], est une plante herbacée de la famille des Onagracées.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Circaea lutetiana, Circée de Paris, Circée commune ou Herbe aux sorcières, est une plante herbacée de la famille des Onagracées.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Etymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom du genre – Circaea – vient de la magicienne Circé, dans la mythologie grecque, et l'épithète spécifique – lutetiana – est dérivée de Lutèce, nom latin de Paris.
 </t>
@@ -542,11 +556,13 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Circaea lutetiana est une plante herbacée, vivace ; ses feuilles sont simples, opposées ; la tige, mince et verte, s'élève de 20 à 60 cm, rarement jusqu'à 75 cm. Les fleurs sont petites, blanches, et fleurissent en été[2].
-Les feuilles sont opposées, décussées, opaques, ovales en cœur à la base, longuement acuminées, bordées de petites dents écartées, à pétiole non ailé, canaliculé en dessus, pubescent tout autour[3].
-La fleur a deux pétales cannelés, deux étamines et un pistil à stigmate bilobé. Les fleurs sont espacées le long de la tige, sans bractée à la base des pédoncules[4]. Le fruit est une capsule velue à deux loges, à deux valves, dans chacune desquelles est renfermée une semence[5].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Circaea lutetiana est une plante herbacée, vivace ; ses feuilles sont simples, opposées ; la tige, mince et verte, s'élève de 20 à 60 cm, rarement jusqu'à 75 cm. Les fleurs sont petites, blanches, et fleurissent en été.
+Les feuilles sont opposées, décussées, opaques, ovales en cœur à la base, longuement acuminées, bordées de petites dents écartées, à pétiole non ailé, canaliculé en dessus, pubescent tout autour.
+La fleur a deux pétales cannelés, deux étamines et un pistil à stigmate bilobé. Les fleurs sont espacées le long de la tige, sans bractée à la base des pédoncules. Le fruit est une capsule velue à deux loges, à deux valves, dans chacune desquelles est renfermée une semence.
 En hiver les parties aériennes meurent les unes après les autres, laissant des rhizomes souterrains.
 </t>
         </is>
@@ -578,11 +594,14 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Distribution
-On la trouve en Europe, jusqu'au centre de la Suède ; en Asie boréale et occidentale jusqu'à l'Himalaya ; en Afrique et Amérique septentrionale. 
-D'une façon générale, elle pousse dans les bois, dans les milieux ombragés et humides, riches en azote et en matières organiques[3].
-Protection
-Circaea lutetiana est protégée dans la région Provence-Alpes-Côte d'Azur depuis l'arrêté du 9 mai 1994[6].
+          <t>Distribution</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">On la trouve en Europe, jusqu'au centre de la Suède ; en Asie boréale et occidentale jusqu'à l'Himalaya ; en Afrique et Amérique septentrionale. 
+D'une façon générale, elle pousse dans les bois, dans les milieux ombragés et humides, riches en azote et en matières organiques.
 </t>
         </is>
       </c>
@@ -608,12 +627,51 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Écologie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Circaea lutetiana est protégée dans la région Provence-Alpes-Côte d'Azur depuis l'arrêté du 9 mai 1994.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Circaea_lutetiana</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Circaea_lutetiana</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Toxicité</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Malgré son appellation commune, cette plante n'est pas particulièrement toxique, mais elle contient une grande quantité de tanin astringent[7].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Malgré son appellation commune, cette plante n'est pas particulièrement toxique, mais elle contient une grande quantité de tanin astringent.
 </t>
         </is>
       </c>
